--- a/SAPList.xlsx
+++ b/SAPList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengyingjie/develop/workspace/vscode/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0535070-C743-7347-8A1E-79F0050F9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5561E8D1-B840-3549-BEA2-A2752B70F83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1400" windowWidth="27440" windowHeight="15940" xr2:uid="{2EDF370F-711D-A646-B121-E691F1B16D2B}"/>
+    <workbookView xWindow="1360" yWindow="680" windowWidth="27440" windowHeight="15940" xr2:uid="{2EDF370F-711D-A646-B121-E691F1B16D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378BB8C-4D95-BA40-95A0-B36848F4B130}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D17:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
